--- a/학습자료/단답형/오답노트/오답노트_무한반복_연표_한국사_연표_6 대한민국수립.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_연표_한국사_연표_6 대한민국수립.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1325,24 +1325,192 @@
           <t>트루먼 독트린 발표</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>1947</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>50</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1947</v>
+      </c>
+      <c r="D43" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>06시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>민주국민당 창당</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>45</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1949</v>
+      </c>
+      <c r="D44" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>15시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>국가보안법 제정</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>50</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1948</v>
+      </c>
+      <c r="D45" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>15시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>조선건국준비위원회 결성</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1945</v>
+      </c>
+      <c r="D46" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>15시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>조선건국동맹 조직</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1944</v>
+      </c>
+      <c r="D47" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>15시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>신한공사 설립</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>45</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1946</v>
+      </c>
+      <c r="D48" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>15시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>애치슨 선언</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1950</v>
+      </c>
+      <c r="D49" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>15시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>조선인민공화국 선포</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>4</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1945</v>
+      </c>
+      <c r="D50" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>15시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>귀속 재산 처리법 제정</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>20230118</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>06시 20분</t>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>15시 16분</t>
         </is>
       </c>
     </row>
